--- a/analysis/post_gemini_data/Participant120/task_easy.xlsx
+++ b/analysis/post_gemini_data/Participant120/task_easy.xlsx
@@ -17,16 +17,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="1">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -37,7 +34,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -45,21 +42,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -434,87 +422,83 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Unnamed: 0</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="A1" t="inlineStr"/>
+      <c r="B1" t="inlineStr">
         <is>
           <t>arg</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" t="inlineStr">
         <is>
           <t>code</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" t="inlineStr">
         <is>
           <t>conditionalstatement</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E1" t="inlineStr">
         <is>
           <t>gemini</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="F1" t="inlineStr">
         <is>
           <t>loop</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="G1" t="inlineStr">
         <is>
           <t>loop body</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="H1" t="inlineStr">
         <is>
           <t>methodcall</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="I1" t="inlineStr">
         <is>
           <t>methodcall2</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="J1" t="inlineStr">
         <is>
           <t>methoddec</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="K1" t="inlineStr">
         <is>
           <t>parameter</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="L1" t="inlineStr">
         <is>
           <t>parameter2</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="M1" t="inlineStr">
         <is>
           <t>return</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="N1" t="inlineStr">
         <is>
           <t>summary</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="O1" t="inlineStr">
         <is>
           <t>variable</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="P1" t="inlineStr">
         <is>
           <t>variable2</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="Q1" t="inlineStr">
         <is>
           <t>variable3</t>
         </is>
@@ -551,40 +535,34 @@
       </c>
       <c r="B3" t="inlineStr"/>
       <c r="C3" t="n">
-        <v>52</v>
+        <v>15</v>
       </c>
       <c r="D3" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E3" t="n">
         <v>66</v>
       </c>
       <c r="F3" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="G3" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="H3" t="inlineStr"/>
-      <c r="I3" t="n">
-        <v>3</v>
-      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="n">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="K3" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>5</v>
-      </c>
+      <c r="M3" t="inlineStr"/>
       <c r="N3" t="n">
-        <v>77</v>
-      </c>
-      <c r="O3" t="n">
-        <v>6</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="O3" t="inlineStr"/>
       <c r="P3" t="inlineStr"/>
       <c r="Q3" t="inlineStr"/>
     </row>
@@ -596,40 +574,34 @@
       </c>
       <c r="B4" t="inlineStr"/>
       <c r="C4" t="n">
-        <v>105</v>
+        <v>28</v>
       </c>
       <c r="D4" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E4" t="n">
         <v>398</v>
       </c>
       <c r="F4" t="n">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="G4" t="n">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="H4" t="inlineStr"/>
-      <c r="I4" t="n">
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="n">
         <v>5</v>
       </c>
-      <c r="J4" t="n">
-        <v>36</v>
-      </c>
       <c r="K4" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
-        <v>8</v>
-      </c>
+      <c r="M4" t="inlineStr"/>
       <c r="N4" t="n">
-        <v>355</v>
-      </c>
-      <c r="O4" t="n">
-        <v>10</v>
-      </c>
+        <v>363</v>
+      </c>
+      <c r="O4" t="inlineStr"/>
       <c r="P4" t="inlineStr"/>
       <c r="Q4" t="inlineStr"/>
     </row>
@@ -641,40 +613,34 @@
       </c>
       <c r="B5" t="inlineStr"/>
       <c r="C5" t="n">
-        <v>22114.05</v>
+        <v>6306.46</v>
       </c>
       <c r="D5" t="n">
-        <v>1801.95</v>
+        <v>283.52</v>
       </c>
       <c r="E5" t="n">
         <v>76500.31</v>
       </c>
       <c r="F5" t="n">
-        <v>5714.21</v>
+        <v>608.78</v>
       </c>
       <c r="G5" t="n">
-        <v>3912.38</v>
+        <v>583.83</v>
       </c>
       <c r="H5" t="inlineStr"/>
-      <c r="I5" t="n">
-        <v>1017.73</v>
-      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="n">
-        <v>8784.32</v>
+        <v>1201.23</v>
       </c>
       <c r="K5" t="n">
-        <v>1151.12</v>
+        <v>667.36</v>
       </c>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
-        <v>1443.26</v>
-      </c>
+      <c r="M5" t="inlineStr"/>
       <c r="N5" t="n">
-        <v>98801.63</v>
-      </c>
-      <c r="O5" t="n">
-        <v>3053.12</v>
-      </c>
+        <v>116082.3</v>
+      </c>
+      <c r="O5" t="inlineStr"/>
       <c r="P5" t="inlineStr"/>
       <c r="Q5" t="inlineStr"/>
     </row>
@@ -686,40 +652,34 @@
       </c>
       <c r="B6" t="inlineStr"/>
       <c r="C6" t="n">
-        <v>10.18</v>
+        <v>2.02</v>
       </c>
       <c r="D6" t="n">
-        <v>0.83</v>
+        <v>0.09</v>
       </c>
       <c r="E6" t="n">
         <v>24.48</v>
       </c>
       <c r="F6" t="n">
-        <v>2.63</v>
+        <v>0.2</v>
       </c>
       <c r="G6" t="n">
-        <v>1.8</v>
+        <v>0.19</v>
       </c>
       <c r="H6" t="inlineStr"/>
-      <c r="I6" t="n">
-        <v>0.47</v>
-      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="n">
-        <v>4.05</v>
+        <v>0.38</v>
       </c>
       <c r="K6" t="n">
-        <v>0.53</v>
+        <v>0.21</v>
       </c>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
-        <v>0.66</v>
-      </c>
+      <c r="M6" t="inlineStr"/>
       <c r="N6" t="n">
-        <v>45.48</v>
-      </c>
-      <c r="O6" t="n">
-        <v>1.41</v>
-      </c>
+        <v>37.19</v>
+      </c>
+      <c r="O6" t="inlineStr"/>
       <c r="P6" t="inlineStr"/>
       <c r="Q6" t="inlineStr"/>
     </row>
@@ -731,40 +691,34 @@
       </c>
       <c r="B7" t="inlineStr"/>
       <c r="C7" t="n">
-        <v>210.61</v>
+        <v>225.23</v>
       </c>
       <c r="D7" t="n">
-        <v>225.24</v>
+        <v>141.76</v>
       </c>
       <c r="E7" t="n">
         <v>192.21</v>
       </c>
       <c r="F7" t="n">
-        <v>248.44</v>
+        <v>202.93</v>
       </c>
       <c r="G7" t="n">
-        <v>195.62</v>
+        <v>194.61</v>
       </c>
       <c r="H7" t="inlineStr"/>
-      <c r="I7" t="n">
-        <v>203.55</v>
-      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="n">
-        <v>244.01</v>
+        <v>240.25</v>
       </c>
       <c r="K7" t="n">
-        <v>230.22</v>
+        <v>333.68</v>
       </c>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
-        <v>180.41</v>
-      </c>
+      <c r="M7" t="inlineStr"/>
       <c r="N7" t="n">
-        <v>278.31</v>
-      </c>
-      <c r="O7" t="n">
-        <v>305.31</v>
-      </c>
+        <v>319.79</v>
+      </c>
+      <c r="O7" t="inlineStr"/>
       <c r="P7" t="inlineStr"/>
       <c r="Q7" t="inlineStr"/>
     </row>
